--- a/biology/Médecine/Eugenio_Gaddini/Eugenio_Gaddini.xlsx
+++ b/biology/Médecine/Eugenio_Gaddini/Eugenio_Gaddini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenio Gaddini est un médecin et psychanalyste italien né le 18 janvier 1916 à Cerignola et mort à Rome le 27 septembre 1985. Il a été analysé par Emilio Servadio. Il est devenu membre de la Société psychanalytique italienne en 1953 puis formateur et a occupé le poste de président de la société (1978-1982). Il a été actif dans la rédaction de la Rivista di Psicoanalisi[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenio Gaddini est un médecin et psychanalyste italien né le 18 janvier 1916 à Cerignola et mort à Rome le 27 septembre 1985. Il a été analysé par Emilio Servadio. Il est devenu membre de la Société psychanalytique italienne en 1953 puis formateur et a occupé le poste de président de la société (1978-1982). Il a été actif dans la rédaction de la Rivista di Psicoanalisi.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1978-1982 : président de la Société psychanalytique italienne[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1978-1982 : président de la Société psychanalytique italienne.</t>
         </is>
       </c>
     </row>
